--- a/src/resources/SkillMatrix.xlsx
+++ b/src/resources/SkillMatrix.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Oleg/IdeaProjects/FinalTask2/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280"/>
+    <workbookView windowHeight="14280" windowWidth="25600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Skill Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill Matrix" r:id="rId5" sheetId="1"/>
   </sheets>
-  <definedNames>
-    <definedName name="CompetencyCell" localSheetId="0">'Skill Matrix'!#REF!</definedName>
-    <definedName name="LevelCell" localSheetId="0">'Skill Matrix'!#REF!</definedName>
-    <definedName name="SpecialityCell" localSheetId="0">'Skill Matrix'!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>Hard skills</t>
   </si>
@@ -167,12 +162,16 @@
   </si>
   <si>
     <t>Новая колонка</t>
+  </si>
+  <si>
+    <t>StressTolerance2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,17 +196,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf applyAlignment="0" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -224,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -262,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,21 +390,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -422,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -474,258 +473,246 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="E11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="E17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="E19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="E20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="E21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="D22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="E23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="F24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="F25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="F26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="1" t="s">
+    <row r="27">
+      <c r="G27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="E29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="E30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="F33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="F34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="C35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="D36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="B41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="C43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="C44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="C45" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>